--- a/Documents/WebTours Профиль нагрузки (простой) (1).xlsx
+++ b/Documents/WebTours Профиль нагрузки (простой) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svp31\Desktop\Курсы НТ\git\xset\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811093AA-B3DF-4B94-9BAA-810FB4BB3AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93898084-91E9-400E-B210-0AF36CBAD376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,29 +1168,29 @@
         <v>289</v>
       </c>
       <c r="C2" s="15">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D2" s="17">
         <f>60/C2</f>
-        <v>2.4</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="E2" s="11">
         <v>60</v>
       </c>
       <c r="F2" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="11">
         <f>ROUND(F2,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="5">
         <f>D2*E2*G2</f>
-        <v>288</v>
+        <v>276.92307692307691</v>
       </c>
       <c r="I2" s="9">
         <f>H2/B2-1</f>
-        <v>-3.4602076124568004E-3</v>
+        <v>-4.1788661165823804E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1201,29 +1201,29 @@
         <v>458</v>
       </c>
       <c r="C3" s="15">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D3" s="17">
         <f t="shared" ref="D3:D6" si="0">60/C3</f>
-        <v>2.5</v>
+        <v>1.935483870967742</v>
       </c>
       <c r="E3" s="11">
         <v>60</v>
       </c>
       <c r="F3" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G6" si="1">ROUND(F3,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H6" si="2">D3*E3*G3</f>
-        <v>450</v>
+        <v>464.51612903225805</v>
       </c>
       <c r="I3" s="9">
         <f t="shared" ref="I3:I6" si="3">H3/B3-1</f>
-        <v>-1.7467248908296984E-2</v>
+        <v>1.4227355965628963E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1267,29 +1267,29 @@
         <v>345</v>
       </c>
       <c r="C5" s="15">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" si="0"/>
-        <v>1.935483870967742</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="E5" s="11">
         <v>60</v>
       </c>
       <c r="F5" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="2"/>
-        <v>348.38709677419354</v>
+        <v>342.85714285714289</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="3"/>
-        <v>9.817671809256634E-3</v>
+        <v>-6.2111801242235032E-3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1300,29 +1300,29 @@
         <v>234</v>
       </c>
       <c r="C6" s="15">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D6" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1.935483870967742</v>
       </c>
       <c r="E6" s="11">
         <v>60</v>
       </c>
       <c r="F6" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>232.25806451612902</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="3"/>
-        <v>2.564102564102555E-2</v>
+        <v>-7.4441687344913854E-3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
